--- a/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Marinela Olaya.xlsx
+++ b/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Marinela Olaya.xlsx
@@ -149,49 +149,49 @@
     <t xml:space="preserve">Express capilar cabello extra largo</t>
   </si>
   <si>
+    <t xml:space="preserve">28/11/2024 09:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milagros Collante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/11/2024 09:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatriz Wills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depilacion Bigote cera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/11/2024 14:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilar Bermudez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/11/2024 13:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz Stella Gomez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scalpego energizing Shampoo 300 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/11/2024 12:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra Giraldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/11/2024 18:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Paez</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spa Manicure Tradicional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/11/2024 09:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milagros Collante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/11/2024 09:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beatriz Wills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depilacion Bigote cera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/11/2024 14:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilar Bermudez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/11/2024 13:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luz Stella Gomez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scalpego energizing Shampoo 300 ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/11/2024 12:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandra Giraldo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/11/2024 18:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando Paez</t>
   </si>
   <si>
     <t xml:space="preserve">26/11/2024 14:32</t>
@@ -1424,163 +1424,163 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="H18" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I18" t="n">
-        <v>7280</v>
+        <v>5500</v>
       </c>
       <c r="J18" t="n">
-        <v>20720</v>
+        <v>15708</v>
       </c>
       <c r="K18" t="n">
-        <v>12600</v>
+        <v>8800</v>
       </c>
       <c r="L18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="F19" t="n">
         <v>0.036</v>
       </c>
       <c r="G19" t="n">
-        <v>792</v>
+        <v>432</v>
       </c>
       <c r="H19" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I19" t="n">
-        <v>5500</v>
+        <v>1800</v>
       </c>
       <c r="J19" t="n">
-        <v>15708</v>
+        <v>9768</v>
       </c>
       <c r="K19" t="n">
-        <v>8800</v>
+        <v>5860.8</v>
       </c>
       <c r="L19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="F20" t="n">
         <v>0.036</v>
       </c>
       <c r="G20" t="n">
-        <v>432</v>
+        <v>1152</v>
       </c>
       <c r="H20" t="n">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="I20" t="n">
-        <v>1800</v>
+        <v>8320</v>
       </c>
       <c r="J20" t="n">
-        <v>9768</v>
+        <v>22528</v>
       </c>
       <c r="K20" t="n">
-        <v>5860.8</v>
+        <v>14400</v>
       </c>
       <c r="L20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>32000</v>
+        <v>219000</v>
       </c>
       <c r="F21" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1152</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.26</v>
+        <v>0.56</v>
       </c>
       <c r="I21" t="n">
-        <v>8320</v>
+        <v>122640</v>
       </c>
       <c r="J21" t="n">
-        <v>22528</v>
+        <v>96360</v>
       </c>
       <c r="K21" t="n">
-        <v>14400</v>
+        <v>17520</v>
       </c>
       <c r="L21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="n">
-        <v>219000</v>
+        <v>95000</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1589,34 +1589,34 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.56</v>
+        <v>0.25</v>
       </c>
       <c r="I22" t="n">
-        <v>122640</v>
+        <v>23750</v>
       </c>
       <c r="J22" t="n">
-        <v>96360</v>
+        <v>71250</v>
       </c>
       <c r="K22" t="n">
-        <v>17520</v>
+        <v>38000</v>
       </c>
       <c r="L22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>95000</v>
+        <v>55000</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1628,265 +1628,265 @@
         <v>0.25</v>
       </c>
       <c r="I23" t="n">
-        <v>23750</v>
+        <v>13750</v>
       </c>
       <c r="J23" t="n">
-        <v>71250</v>
+        <v>41250</v>
       </c>
       <c r="K23" t="n">
-        <v>38000</v>
+        <v>22000</v>
       </c>
       <c r="L23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="n">
-        <v>55000</v>
+        <v>62000</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2232</v>
       </c>
       <c r="H24" t="n">
         <v>0.25</v>
       </c>
       <c r="I24" t="n">
-        <v>13750</v>
+        <v>15500</v>
       </c>
       <c r="J24" t="n">
-        <v>41250</v>
+        <v>44268</v>
       </c>
       <c r="K24" t="n">
-        <v>22000</v>
+        <v>24800</v>
       </c>
       <c r="L24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>62000</v>
+        <v>28000</v>
       </c>
       <c r="F25" t="n">
         <v>0.036</v>
       </c>
       <c r="G25" t="n">
-        <v>2232</v>
+        <v>1008</v>
       </c>
       <c r="H25" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I25" t="n">
-        <v>15500</v>
+        <v>7280</v>
       </c>
       <c r="J25" t="n">
-        <v>44268</v>
+        <v>19712</v>
       </c>
       <c r="K25" t="n">
-        <v>24800</v>
+        <v>12600</v>
       </c>
       <c r="L25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="F26" t="n">
         <v>0.036</v>
       </c>
       <c r="G26" t="n">
-        <v>1008</v>
+        <v>1224</v>
       </c>
       <c r="H26" t="n">
         <v>0.26</v>
       </c>
       <c r="I26" t="n">
-        <v>7280</v>
+        <v>8840</v>
       </c>
       <c r="J26" t="n">
-        <v>19712</v>
+        <v>23936</v>
       </c>
       <c r="K26" t="n">
-        <v>12600</v>
+        <v>15300</v>
       </c>
       <c r="L26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="F27" t="n">
         <v>0.036</v>
       </c>
       <c r="G27" t="n">
-        <v>1224</v>
+        <v>1152</v>
       </c>
       <c r="H27" t="n">
         <v>0.26</v>
       </c>
       <c r="I27" t="n">
-        <v>8840</v>
+        <v>8320</v>
       </c>
       <c r="J27" t="n">
-        <v>23936</v>
+        <v>22528</v>
       </c>
       <c r="K27" t="n">
-        <v>15300</v>
+        <v>14400</v>
       </c>
       <c r="L27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="F28" t="n">
         <v>0.036</v>
       </c>
       <c r="G28" t="n">
-        <v>1152</v>
+        <v>792</v>
       </c>
       <c r="H28" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I28" t="n">
-        <v>8320</v>
+        <v>5500</v>
       </c>
       <c r="J28" t="n">
-        <v>22528</v>
+        <v>15708</v>
       </c>
       <c r="K28" t="n">
-        <v>14400</v>
+        <v>8800</v>
       </c>
       <c r="L28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="F29" t="n">
         <v>0.036</v>
       </c>
       <c r="G29" t="n">
-        <v>792</v>
+        <v>1008</v>
       </c>
       <c r="H29" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I29" t="n">
-        <v>5500</v>
+        <v>7280</v>
       </c>
       <c r="J29" t="n">
-        <v>15708</v>
+        <v>19712</v>
       </c>
       <c r="K29" t="n">
-        <v>8800</v>
+        <v>12600</v>
       </c>
       <c r="L29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="F30" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0.26</v>
       </c>
       <c r="I30" t="n">
-        <v>7280</v>
+        <v>9880</v>
       </c>
       <c r="J30" t="n">
-        <v>19712</v>
+        <v>28120</v>
       </c>
       <c r="K30" t="n">
-        <v>12600</v>
+        <v>17100</v>
       </c>
       <c r="L30"/>
     </row>
@@ -1898,13 +1898,13 @@
         <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1916,157 +1916,157 @@
         <v>0.26</v>
       </c>
       <c r="I31" t="n">
-        <v>9880</v>
+        <v>8320</v>
       </c>
       <c r="J31" t="n">
-        <v>28120</v>
+        <v>23680</v>
       </c>
       <c r="K31" t="n">
-        <v>17100</v>
+        <v>14400</v>
       </c>
       <c r="L31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>32000</v>
+        <v>95000</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3420</v>
       </c>
       <c r="H32" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I32" t="n">
-        <v>8320</v>
+        <v>23750</v>
       </c>
       <c r="J32" t="n">
-        <v>23680</v>
+        <v>67830</v>
       </c>
       <c r="K32" t="n">
-        <v>14400</v>
+        <v>38000</v>
       </c>
       <c r="L32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>95000</v>
+        <v>55000</v>
       </c>
       <c r="F33" t="n">
         <v>0.036</v>
       </c>
       <c r="G33" t="n">
-        <v>3420</v>
+        <v>1980</v>
       </c>
       <c r="H33" t="n">
         <v>0.25</v>
       </c>
       <c r="I33" t="n">
-        <v>23750</v>
+        <v>13750</v>
       </c>
       <c r="J33" t="n">
-        <v>67830</v>
+        <v>39270</v>
       </c>
       <c r="K33" t="n">
-        <v>38000</v>
+        <v>22000</v>
       </c>
       <c r="L33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>55000</v>
+        <v>24000</v>
       </c>
       <c r="F34" t="n">
         <v>0.036</v>
       </c>
       <c r="G34" t="n">
-        <v>1980</v>
+        <v>864</v>
       </c>
       <c r="H34" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I34" t="n">
-        <v>13750</v>
+        <v>6240</v>
       </c>
       <c r="J34" t="n">
-        <v>39270</v>
+        <v>16896</v>
       </c>
       <c r="K34" t="n">
-        <v>22000</v>
+        <v>10800</v>
       </c>
       <c r="L34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>24000</v>
+        <v>55000</v>
       </c>
       <c r="F35" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>864</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I35" t="n">
-        <v>6240</v>
+        <v>13750</v>
       </c>
       <c r="J35" t="n">
-        <v>16896</v>
+        <v>41250</v>
       </c>
       <c r="K35" t="n">
-        <v>10800</v>
+        <v>22000</v>
       </c>
       <c r="L35"/>
     </row>
@@ -2108,109 +2108,109 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>55000</v>
+        <v>38000</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1368</v>
       </c>
       <c r="H37" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I37" t="n">
-        <v>13750</v>
+        <v>9880</v>
       </c>
       <c r="J37" t="n">
-        <v>41250</v>
+        <v>26752</v>
       </c>
       <c r="K37" t="n">
-        <v>22000</v>
+        <v>17100</v>
       </c>
       <c r="L37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>38000</v>
+        <v>22000</v>
       </c>
       <c r="F38" t="n">
         <v>0.036</v>
       </c>
       <c r="G38" t="n">
-        <v>1368</v>
+        <v>792</v>
       </c>
       <c r="H38" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I38" t="n">
-        <v>9880</v>
+        <v>5500</v>
       </c>
       <c r="J38" t="n">
-        <v>26752</v>
+        <v>15708</v>
       </c>
       <c r="K38" t="n">
-        <v>17100</v>
+        <v>8800</v>
       </c>
       <c r="L38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>22000</v>
+        <v>38000</v>
       </c>
       <c r="F39" t="n">
         <v>0.036</v>
       </c>
       <c r="G39" t="n">
-        <v>792</v>
+        <v>1368</v>
       </c>
       <c r="H39" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I39" t="n">
-        <v>5500</v>
+        <v>9880</v>
       </c>
       <c r="J39" t="n">
-        <v>15708</v>
+        <v>26752</v>
       </c>
       <c r="K39" t="n">
-        <v>8800</v>
+        <v>17100</v>
       </c>
       <c r="L39"/>
     </row>
@@ -2222,31 +2222,31 @@
         <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>38000</v>
+        <v>105000</v>
       </c>
       <c r="F40" t="n">
         <v>0.036</v>
       </c>
       <c r="G40" t="n">
-        <v>1368</v>
+        <v>3780</v>
       </c>
       <c r="H40" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I40" t="n">
-        <v>9880</v>
+        <v>26250</v>
       </c>
       <c r="J40" t="n">
-        <v>26752</v>
+        <v>74970</v>
       </c>
       <c r="K40" t="n">
-        <v>17100</v>
+        <v>42000</v>
       </c>
       <c r="L40"/>
     </row>
@@ -2258,76 +2258,76 @@
         <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>105000</v>
+        <v>45000</v>
       </c>
       <c r="F41" t="n">
         <v>0.036</v>
       </c>
       <c r="G41" t="n">
-        <v>3780</v>
+        <v>1620</v>
       </c>
       <c r="H41" t="n">
         <v>0.25</v>
       </c>
       <c r="I41" t="n">
-        <v>26250</v>
+        <v>11250</v>
       </c>
       <c r="J41" t="n">
-        <v>74970</v>
+        <v>32130</v>
       </c>
       <c r="K41" t="n">
-        <v>42000</v>
+        <v>18000</v>
       </c>
       <c r="L41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="F42" t="n">
         <v>0.036</v>
       </c>
       <c r="G42" t="n">
-        <v>1620</v>
+        <v>792</v>
       </c>
       <c r="H42" t="n">
         <v>0.25</v>
       </c>
       <c r="I42" t="n">
-        <v>11250</v>
+        <v>5500</v>
       </c>
       <c r="J42" t="n">
-        <v>32130</v>
+        <v>15708</v>
       </c>
       <c r="K42" t="n">
-        <v>18000</v>
+        <v>8800</v>
       </c>
       <c r="L42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -2360,55 +2360,55 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>22000</v>
+        <v>50000</v>
       </c>
       <c r="F44" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>792</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0.25</v>
       </c>
       <c r="I44" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="J44" t="n">
-        <v>15708</v>
+        <v>37500</v>
       </c>
       <c r="K44" t="n">
-        <v>8800</v>
+        <v>20000</v>
       </c>
       <c r="L44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>50000</v>
+        <v>22000</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2420,31 +2420,31 @@
         <v>0.25</v>
       </c>
       <c r="I45" t="n">
-        <v>12500</v>
+        <v>5500</v>
       </c>
       <c r="J45" t="n">
-        <v>37500</v>
+        <v>16500</v>
       </c>
       <c r="K45" t="n">
-        <v>20000</v>
+        <v>8800</v>
       </c>
       <c r="L45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>22000</v>
+        <v>95000</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -2456,121 +2456,121 @@
         <v>0.25</v>
       </c>
       <c r="I46" t="n">
-        <v>5500</v>
+        <v>23750</v>
       </c>
       <c r="J46" t="n">
-        <v>16500</v>
+        <v>71250</v>
       </c>
       <c r="K46" t="n">
-        <v>8800</v>
+        <v>38000</v>
       </c>
       <c r="L46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
         <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="H47" t="n">
         <v>0.25</v>
       </c>
       <c r="I47" t="n">
-        <v>23750</v>
+        <v>13750</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>39270</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="L47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>55000</v>
+        <v>115000</v>
       </c>
       <c r="F48" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0.25</v>
       </c>
       <c r="I48" t="n">
-        <v>13750</v>
+        <v>28750</v>
       </c>
       <c r="J48" t="n">
-        <v>39270</v>
+        <v>86250</v>
       </c>
       <c r="K48" t="n">
-        <v>22000</v>
+        <v>46000</v>
       </c>
       <c r="L48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" t="n">
-        <v>115000</v>
+        <v>35000</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="H49" t="n">
-        <v>0.25</v>
+        <v>0.1166</v>
       </c>
       <c r="I49" t="n">
-        <v>28750</v>
+        <v>4081</v>
       </c>
       <c r="J49" t="n">
-        <v>86250</v>
+        <v>29659</v>
       </c>
       <c r="K49" t="n">
-        <v>46000</v>
+        <v>19250</v>
       </c>
       <c r="L49"/>
     </row>
@@ -2582,31 +2582,31 @@
         <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="F50" t="n">
         <v>0.036</v>
       </c>
       <c r="G50" t="n">
-        <v>1260</v>
+        <v>1620</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1166</v>
+        <v>0.25</v>
       </c>
       <c r="I50" t="n">
-        <v>4081</v>
+        <v>11250</v>
       </c>
       <c r="J50" t="n">
-        <v>29659</v>
+        <v>32130</v>
       </c>
       <c r="K50" t="n">
-        <v>19250</v>
+        <v>18000</v>
       </c>
       <c r="L50"/>
     </row>
@@ -2618,76 +2618,76 @@
         <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>45000</v>
+        <v>95000</v>
       </c>
       <c r="F51" t="n">
         <v>0.036</v>
       </c>
       <c r="G51" t="n">
-        <v>1620</v>
+        <v>3420</v>
       </c>
       <c r="H51" t="n">
         <v>0.25</v>
       </c>
       <c r="I51" t="n">
-        <v>11250</v>
+        <v>23750</v>
       </c>
       <c r="J51" t="n">
-        <v>32130</v>
+        <v>67830</v>
       </c>
       <c r="K51" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="L51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>95000</v>
+        <v>22000</v>
       </c>
       <c r="F52" t="n">
         <v>0.036</v>
       </c>
       <c r="G52" t="n">
-        <v>3420</v>
+        <v>792</v>
       </c>
       <c r="H52" t="n">
         <v>0.25</v>
       </c>
       <c r="I52" t="n">
-        <v>23750</v>
+        <v>5500</v>
       </c>
       <c r="J52" t="n">
-        <v>67830</v>
+        <v>15708</v>
       </c>
       <c r="K52" t="n">
-        <v>38000</v>
+        <v>8800</v>
       </c>
       <c r="L52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -2720,109 +2720,109 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>22000</v>
+        <v>50000</v>
       </c>
       <c r="F54" t="n">
         <v>0.036</v>
       </c>
       <c r="G54" t="n">
-        <v>792</v>
+        <v>1800</v>
       </c>
       <c r="H54" t="n">
         <v>0.25</v>
       </c>
       <c r="I54" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="J54" t="n">
-        <v>15708</v>
+        <v>35700</v>
       </c>
       <c r="K54" t="n">
-        <v>8800</v>
+        <v>20000</v>
       </c>
       <c r="L54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="F55" t="n">
         <v>0.036</v>
       </c>
       <c r="G55" t="n">
-        <v>1800</v>
+        <v>1620</v>
       </c>
       <c r="H55" t="n">
         <v>0.25</v>
       </c>
       <c r="I55" t="n">
-        <v>12500</v>
+        <v>11250</v>
       </c>
       <c r="J55" t="n">
-        <v>35700</v>
+        <v>32130</v>
       </c>
       <c r="K55" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>45000</v>
+        <v>38000</v>
       </c>
       <c r="F56" t="n">
         <v>0.036</v>
       </c>
       <c r="G56" t="n">
-        <v>1620</v>
+        <v>1368</v>
       </c>
       <c r="H56" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I56" t="n">
-        <v>11250</v>
+        <v>9880</v>
       </c>
       <c r="J56" t="n">
-        <v>32130</v>
+        <v>26752</v>
       </c>
       <c r="K56" t="n">
-        <v>18000</v>
+        <v>17100</v>
       </c>
       <c r="L56"/>
     </row>
@@ -2834,31 +2834,31 @@
         <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>38000</v>
+        <v>8000</v>
       </c>
       <c r="F57" t="n">
         <v>0.036</v>
       </c>
       <c r="G57" t="n">
-        <v>1368</v>
+        <v>288</v>
       </c>
       <c r="H57" t="n">
-        <v>0.26</v>
+        <v>0.56</v>
       </c>
       <c r="I57" t="n">
-        <v>9880</v>
+        <v>4480</v>
       </c>
       <c r="J57" t="n">
-        <v>26752</v>
+        <v>3232</v>
       </c>
       <c r="K57" t="n">
-        <v>17100</v>
+        <v>640</v>
       </c>
       <c r="L57"/>
     </row>
@@ -2870,247 +2870,247 @@
         <v>106</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="F58" t="n">
         <v>0.036</v>
       </c>
       <c r="G58" t="n">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="H58" t="n">
-        <v>0.56</v>
+        <v>0.25</v>
       </c>
       <c r="I58" t="n">
-        <v>4480</v>
+        <v>5500</v>
       </c>
       <c r="J58" t="n">
-        <v>3232</v>
+        <v>15708</v>
       </c>
       <c r="K58" t="n">
-        <v>640</v>
+        <v>8800</v>
       </c>
       <c r="L58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="F59" t="n">
         <v>0.036</v>
       </c>
       <c r="G59" t="n">
-        <v>792</v>
+        <v>540</v>
       </c>
       <c r="H59" t="n">
         <v>0.25</v>
       </c>
       <c r="I59" t="n">
-        <v>5500</v>
+        <v>3750</v>
       </c>
       <c r="J59" t="n">
-        <v>15708</v>
+        <v>10710</v>
       </c>
       <c r="K59" t="n">
-        <v>8800</v>
+        <v>6000</v>
       </c>
       <c r="L59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="F60" t="n">
         <v>0.036</v>
       </c>
       <c r="G60" t="n">
-        <v>540</v>
+        <v>792</v>
       </c>
       <c r="H60" t="n">
         <v>0.25</v>
       </c>
       <c r="I60" t="n">
-        <v>3750</v>
+        <v>5500</v>
       </c>
       <c r="J60" t="n">
-        <v>10710</v>
+        <v>15708</v>
       </c>
       <c r="K60" t="n">
-        <v>6000</v>
+        <v>8800</v>
       </c>
       <c r="L60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
       </c>
       <c r="E61" t="n">
+        <v>55000</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1980</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I61" t="n">
+        <v>13750</v>
+      </c>
+      <c r="J61" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K61" t="n">
         <v>22000</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="G61" t="n">
-        <v>792</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5500</v>
-      </c>
-      <c r="J61" t="n">
-        <v>15708</v>
-      </c>
-      <c r="K61" t="n">
-        <v>8800</v>
       </c>
       <c r="L61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62" t="n">
-        <v>55000</v>
+        <v>95000</v>
       </c>
       <c r="F62" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0.25</v>
       </c>
       <c r="I62" t="n">
-        <v>13750</v>
+        <v>23750</v>
       </c>
       <c r="J62" t="n">
-        <v>39270</v>
+        <v>71250</v>
       </c>
       <c r="K62" t="n">
-        <v>22000</v>
+        <v>38000</v>
       </c>
       <c r="L62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="H63" t="n">
         <v>0.25</v>
       </c>
       <c r="I63" t="n">
-        <v>23750</v>
+        <v>11250</v>
       </c>
       <c r="J63" t="n">
-        <v>71250</v>
+        <v>32130</v>
       </c>
       <c r="K63" t="n">
-        <v>38000</v>
+        <v>18000</v>
       </c>
       <c r="L63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>45000</v>
+        <v>38000</v>
       </c>
       <c r="F64" t="n">
         <v>0.036</v>
       </c>
       <c r="G64" t="n">
-        <v>1620</v>
+        <v>1368</v>
       </c>
       <c r="H64" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I64" t="n">
-        <v>11250</v>
+        <v>9880</v>
       </c>
       <c r="J64" t="n">
-        <v>32130</v>
+        <v>26752</v>
       </c>
       <c r="K64" t="n">
-        <v>18000</v>
+        <v>17100</v>
       </c>
       <c r="L64"/>
     </row>
@@ -3122,76 +3122,76 @@
         <v>120</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
       </c>
       <c r="E65" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="F65" t="n">
         <v>0.036</v>
       </c>
       <c r="G65" t="n">
-        <v>1368</v>
+        <v>1152</v>
       </c>
       <c r="H65" t="n">
         <v>0.26</v>
       </c>
       <c r="I65" t="n">
-        <v>9880</v>
+        <v>8320</v>
       </c>
       <c r="J65" t="n">
-        <v>26752</v>
+        <v>22528</v>
       </c>
       <c r="K65" t="n">
-        <v>17100</v>
+        <v>14400</v>
       </c>
       <c r="L65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="F66" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1152</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I66" t="n">
-        <v>8320</v>
+        <v>5500</v>
       </c>
       <c r="J66" t="n">
-        <v>22528</v>
+        <v>16500</v>
       </c>
       <c r="K66" t="n">
-        <v>14400</v>
+        <v>8800</v>
       </c>
       <c r="L66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -3224,73 +3224,73 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="H68" t="n">
-        <v>0.25</v>
+        <v>0.1166</v>
       </c>
       <c r="I68" t="n">
-        <v>5500</v>
+        <v>4081</v>
       </c>
       <c r="J68" t="n">
-        <v>16500</v>
+        <v>29659</v>
       </c>
       <c r="K68" t="n">
-        <v>8800</v>
+        <v>19250</v>
       </c>
       <c r="L68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="F69" t="n">
         <v>0.036</v>
       </c>
       <c r="G69" t="n">
-        <v>1260</v>
+        <v>1620</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1166</v>
+        <v>0.25</v>
       </c>
       <c r="I69" t="n">
-        <v>4081</v>
+        <v>11250</v>
       </c>
       <c r="J69" t="n">
-        <v>29659</v>
+        <v>32130</v>
       </c>
       <c r="K69" t="n">
-        <v>19250</v>
+        <v>18000</v>
       </c>
       <c r="L69"/>
     </row>
@@ -3302,67 +3302,67 @@
         <v>128</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
         <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>45000</v>
+        <v>95000</v>
       </c>
       <c r="F70" t="n">
         <v>0.036</v>
       </c>
       <c r="G70" t="n">
-        <v>1620</v>
+        <v>3420</v>
       </c>
       <c r="H70" t="n">
         <v>0.25</v>
       </c>
       <c r="I70" t="n">
-        <v>11250</v>
+        <v>23750</v>
       </c>
       <c r="J70" t="n">
-        <v>32130</v>
+        <v>67830</v>
       </c>
       <c r="K70" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="L70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>95000</v>
+        <v>22000</v>
       </c>
       <c r="F71" t="n">
         <v>0.036</v>
       </c>
       <c r="G71" t="n">
-        <v>3420</v>
+        <v>792</v>
       </c>
       <c r="H71" t="n">
         <v>0.25</v>
       </c>
       <c r="I71" t="n">
-        <v>23750</v>
+        <v>5500</v>
       </c>
       <c r="J71" t="n">
-        <v>67830</v>
+        <v>15708</v>
       </c>
       <c r="K71" t="n">
-        <v>38000</v>
+        <v>8800</v>
       </c>
       <c r="L71"/>
     </row>
@@ -3404,73 +3404,73 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>22000</v>
+        <v>60000</v>
       </c>
       <c r="F73" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>792</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0.25</v>
       </c>
       <c r="I73" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="J73" t="n">
-        <v>15708</v>
+        <v>45000</v>
       </c>
       <c r="K73" t="n">
-        <v>8800</v>
+        <v>24000</v>
       </c>
       <c r="L73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C74" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
       </c>
       <c r="E74" t="n">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="H74" t="n">
-        <v>0.25</v>
+        <v>0.20405</v>
       </c>
       <c r="I74" t="n">
-        <v>15000</v>
+        <v>4081</v>
       </c>
       <c r="J74" t="n">
-        <v>45000</v>
+        <v>15199</v>
       </c>
       <c r="K74" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="L74"/>
     </row>
@@ -3482,31 +3482,31 @@
         <v>133</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D75" t="s">
         <v>15</v>
       </c>
       <c r="E75" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="F75" t="n">
         <v>0.036</v>
       </c>
       <c r="G75" t="n">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="H75" t="n">
-        <v>0.20405</v>
+        <v>0.25</v>
       </c>
       <c r="I75" t="n">
-        <v>4081</v>
+        <v>3750</v>
       </c>
       <c r="J75" t="n">
-        <v>15199</v>
+        <v>10710</v>
       </c>
       <c r="K75" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L75"/>
     </row>
@@ -3518,40 +3518,40 @@
         <v>133</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
       </c>
       <c r="E76" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="F76" t="n">
         <v>0.036</v>
       </c>
       <c r="G76" t="n">
-        <v>540</v>
+        <v>792</v>
       </c>
       <c r="H76" t="n">
         <v>0.25</v>
       </c>
       <c r="I76" t="n">
-        <v>3750</v>
+        <v>5500</v>
       </c>
       <c r="J76" t="n">
-        <v>10710</v>
+        <v>15708</v>
       </c>
       <c r="K76" t="n">
-        <v>6000</v>
+        <v>8800</v>
       </c>
       <c r="L76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3584,79 +3584,65 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
       </c>
       <c r="E78" t="n">
+        <v>55000</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1980</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I78" t="n">
+        <v>13750</v>
+      </c>
+      <c r="J78" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K78" t="n">
         <v>22000</v>
       </c>
-      <c r="F78" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="G78" t="n">
-        <v>792</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5500</v>
-      </c>
-      <c r="J78" t="n">
-        <v>15708</v>
-      </c>
-      <c r="K78" t="n">
-        <v>8800</v>
-      </c>
       <c r="L78"/>
     </row>
     <row r="79">
-      <c r="A79" t="s">
-        <v>138</v>
-      </c>
-      <c r="B79" t="s">
-        <v>36</v>
-      </c>
-      <c r="C79" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" t="n">
-        <v>55000</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1980</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I79" t="n">
-        <v>13750</v>
-      </c>
-      <c r="J79" t="n">
-        <v>39270</v>
-      </c>
-      <c r="K79" t="n">
-        <v>22000</v>
-      </c>
-      <c r="L79"/>
+      <c r="A79" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="L79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
@@ -3678,7 +3664,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
@@ -3694,13 +3680,13 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1" t="n">
-        <v>-20000</v>
+        <v>-30000</v>
       </c>
       <c r="L81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
@@ -3716,13 +3702,13 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="n">
-        <v>-30000</v>
+        <v>-20000</v>
       </c>
       <c r="L82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
@@ -3738,13 +3724,13 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1" t="n">
-        <v>-20000</v>
+        <v>-21000</v>
       </c>
       <c r="L83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
@@ -3760,17 +3746,17 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1" t="n">
-        <v>-21000</v>
+        <v>-30000</v>
       </c>
       <c r="L84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>15</v>
@@ -3782,7 +3768,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1" t="n">
-        <v>-30000</v>
+        <v>-50000</v>
       </c>
       <c r="L85" s="1"/>
     </row>
@@ -3792,7 +3778,7 @@
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>15</v>
@@ -3804,7 +3790,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1" t="n">
-        <v>-50000</v>
+        <v>-100000</v>
       </c>
       <c r="L86" s="1"/>
     </row>
@@ -3814,7 +3800,7 @@
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>15</v>
@@ -3826,17 +3812,17 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1" t="n">
-        <v>-100000</v>
+        <v>-40000</v>
       </c>
       <c r="L87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>15</v>
@@ -3848,13 +3834,13 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1" t="n">
-        <v>-40000</v>
+        <v>-17000</v>
       </c>
       <c r="L88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
@@ -3870,13 +3856,13 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1" t="n">
-        <v>-17000</v>
+        <v>-2000</v>
       </c>
       <c r="L89" s="1"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
@@ -3892,7 +3878,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1" t="n">
-        <v>-2000</v>
+        <v>-15000</v>
       </c>
       <c r="L90" s="1"/>
     </row>
@@ -3902,7 +3888,7 @@
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>15</v>
@@ -3914,31 +3900,9 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1" t="n">
-        <v>-15000</v>
+        <v>-90000</v>
       </c>
       <c r="L91" s="1"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1" t="n">
-        <v>-90000</v>
-      </c>
-      <c r="L92" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
